--- a/DataPack규칙.xlsx
+++ b/DataPack규칙.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>data4</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -167,10 +167,6 @@
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -891,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -931,7 +927,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="N3" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -967,34 +963,34 @@
         <v>7</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -1009,23 +1005,23 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="9"/>
       <c r="L5" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" s="13">
         <v>1</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1033,10 +1029,10 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -1056,13 +1052,13 @@
         <v>29</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="13">
         <v>2</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -1071,7 +1067,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="9"/>
       <c r="V6" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -1113,7 +1109,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="9"/>
       <c r="L8" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N8" s="13">
         <v>3</v>
@@ -1124,11 +1120,11 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
@@ -1150,13 +1146,13 @@
         <v>30</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N9" s="13">
         <v>4</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
@@ -1165,7 +1161,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="9"/>
       <c r="V9" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
@@ -1187,13 +1183,13 @@
         <v>31</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="13">
         <v>5</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1202,7 +1198,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="9"/>
       <c r="V10" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -1224,13 +1220,13 @@
         <v>31</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N11" s="13">
         <v>6</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -1239,7 +1235,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="9"/>
       <c r="V11" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -1261,13 +1257,13 @@
         <v>30</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12" s="13">
         <v>7</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -1276,7 +1272,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="9"/>
       <c r="V12" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
@@ -1298,13 +1294,13 @@
         <v>31</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N13" s="13">
         <v>8</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1313,7 +1309,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="9"/>
       <c r="V13" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
@@ -1335,13 +1331,13 @@
         <v>34</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N14" s="13">
         <v>9</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -1350,7 +1346,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="9"/>
       <c r="V14" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
@@ -1386,39 +1382,39 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N16" s="13">
         <v>10</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
@@ -1438,13 +1434,13 @@
         <v>31</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N17" s="13">
         <v>11</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1453,7 +1449,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="9"/>
       <c r="V17" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
@@ -1473,13 +1469,13 @@
         <v>35</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N18" s="13">
         <v>12</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -1488,7 +1484,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="9"/>
       <c r="V18" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
@@ -1503,23 +1499,20 @@
         <v>36</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N19" s="13">
         <v>13</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
@@ -1528,7 +1521,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="9"/>
       <c r="V19" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
@@ -1554,7 +1547,7 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -1572,13 +1565,13 @@
         <v>31</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N21" s="13">
         <v>14</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
@@ -1587,7 +1580,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="9"/>
       <c r="V21" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
@@ -1607,13 +1600,13 @@
         <v>31</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N22" s="13">
         <v>15</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -1622,7 +1615,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="9"/>
       <c r="V22" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
@@ -1640,7 +1633,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="9"/>
       <c r="L23" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N23" s="13">
         <v>16</v>
@@ -1651,11 +1644,11 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
@@ -1671,32 +1664,32 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N24" s="13">
         <v>17</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">

--- a/DataPack규칙.xlsx
+++ b/DataPack규칙.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
   <si>
     <t>data4</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,7 +242,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Message</t>
+    <t>Quiz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quiz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receiver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>START</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANSWER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTEND</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -250,39 +302,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Quiz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Answer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quiz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Answer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permission</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Student</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Professor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receiver</t>
+    <t>Result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X25"/>
+  <dimension ref="A3:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>2</v>
@@ -990,7 +1018,7 @@
         <v>40</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -1015,7 +1043,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="9"/>
       <c r="L5" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N5" s="13">
         <v>1</v>
@@ -1032,7 +1060,7 @@
         <v>46</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -1052,7 +1080,7 @@
         <v>29</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N6" s="13">
         <v>2</v>
@@ -1067,7 +1095,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="9"/>
       <c r="V6" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -1109,12 +1137,14 @@
       <c r="J8" s="6"/>
       <c r="K8" s="9"/>
       <c r="L8" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N8" s="13">
         <v>3</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -1124,7 +1154,7 @@
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
@@ -1146,7 +1176,7 @@
         <v>30</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N9" s="13">
         <v>4</v>
@@ -1154,14 +1184,16 @@
       <c r="O9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="9"/>
       <c r="V9" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
@@ -1183,7 +1215,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N10" s="13">
         <v>5</v>
@@ -1191,14 +1223,16 @@
       <c r="O10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="9"/>
       <c r="V10" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -1220,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N11" s="13">
         <v>6</v>
@@ -1228,14 +1262,16 @@
       <c r="O11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="9"/>
       <c r="V11" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -1257,7 +1293,7 @@
         <v>30</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N12" s="13">
         <v>7</v>
@@ -1265,14 +1301,16 @@
       <c r="O12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="9"/>
       <c r="V12" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
@@ -1294,7 +1332,7 @@
         <v>31</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N13" s="13">
         <v>8</v>
@@ -1302,14 +1340,16 @@
       <c r="O13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="6"/>
+      <c r="P13" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="9"/>
       <c r="V13" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
@@ -1331,7 +1371,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N14" s="13">
         <v>9</v>
@@ -1339,14 +1379,16 @@
       <c r="O14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="6"/>
+      <c r="P14" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="9"/>
       <c r="V14" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
@@ -1385,17 +1427,17 @@
         <v>37</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N16" s="13">
         <v>10</v>
@@ -1404,17 +1446,19 @@
         <v>48</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
@@ -1434,7 +1478,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N17" s="13">
         <v>11</v>
@@ -1449,27 +1493,29 @@
       <c r="T17" s="6"/>
       <c r="U17" s="9"/>
       <c r="V17" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D18" s="13">
         <v>12</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N18" s="13">
         <v>12</v>
@@ -1477,36 +1523,36 @@
       <c r="O18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="P18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="V18" s="25"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="13">
         <v>13</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>62</v>
+        <v>35</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="N19" s="13">
         <v>13</v>
@@ -1518,74 +1564,78 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
+      <c r="T19" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="U19" s="9"/>
-      <c r="V19" s="27" t="s">
-        <v>62</v>
+      <c r="V19" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="23"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="23"/>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="13">
+        <v>14</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="13">
+        <v>14</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="27" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="23"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D21" s="13">
-        <v>14</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" s="13">
-        <v>14</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D22" s="13">
         <v>15</v>
@@ -1600,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N22" s="13">
         <v>15</v>
@@ -1608,19 +1658,21 @@
       <c r="O22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="9"/>
       <c r="V22" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="13">
         <v>16</v>
@@ -1631,29 +1683,31 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L23" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N23" s="13">
         <v>16</v>
       </c>
-      <c r="O23" s="6"/>
+      <c r="O23" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="T23" s="6"/>
       <c r="U23" s="9"/>
       <c r="V23" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="13">
         <v>17</v>
@@ -1663,14 +1717,10 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N24" s="13">
         <v>17</v>
@@ -1678,40 +1728,155 @@
       <c r="O24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P24" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="24"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="24"/>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="13">
+        <v>18</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="13">
+        <v>18</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="9"/>
+      <c r="V25" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="24"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="24"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1">
+        <v>19</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="1">
+        <v>19</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="N28" s="1">
+        <v>20</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1">
+        <v>21</v>
+      </c>
+      <c r="N29" s="1">
+        <v>21</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="1">
+        <v>22</v>
+      </c>
+      <c r="N30" s="1">
+        <v>22</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataPack규칙.xlsx
+++ b/DataPack규칙.xlsx
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DataPack규칙.xlsx
+++ b/DataPack규칙.xlsx
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DataPack규칙.xlsx
+++ b/DataPack규칙.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>data4</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -916,7 +916,7 @@
   <dimension ref="A3:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1718,9 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L24" s="25" t="s">
         <v>58</v>
       </c>

--- a/DataPack규칙.xlsx
+++ b/DataPack규칙.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>data4</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1718,9 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="L24" s="25" t="s">
         <v>58</v>
       </c>

--- a/DataPack규칙.xlsx
+++ b/DataPack규칙.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="81">
   <si>
     <t>data4</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,67 +171,167 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HWID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Duration</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T/F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LectureList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SenderName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quiz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quiz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Professor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receiver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>START</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANSWER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTEND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGISTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>StudentID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>userInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>data4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>data2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>data1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESPONSE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T/F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LectureList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserList</t>
+    <t>All</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTICE_SET</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -238,79 +339,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SenderName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quiz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Answer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quiz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permission</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Student</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Professor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receiver</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUIZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>START</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANSWER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXTEND</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusPack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -913,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X30"/>
+  <dimension ref="A3:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -955,7 +992,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="N3" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -991,34 +1028,34 @@
         <v>7</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -1033,23 +1070,23 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="9"/>
       <c r="L5" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N5" s="13">
         <v>1</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -1057,10 +1094,10 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -1080,13 +1117,13 @@
         <v>29</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N6" s="13">
         <v>2</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -1095,133 +1132,135 @@
       <c r="T6" s="6"/>
       <c r="U6" s="9"/>
       <c r="V6" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="23"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="23"/>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="13">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="13">
+        <v>3</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="23"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="23"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="13">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="13">
-        <v>3</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="13">
         <v>4</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>60</v>
+      <c r="K9" s="9"/>
+      <c r="L9" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="N9" s="13">
         <v>4</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="T9" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="U9" s="9"/>
-      <c r="V9" s="26" t="s">
-        <v>60</v>
+      <c r="V9" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="13">
         <v>5</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N10" s="13">
         <v>5</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>32</v>
@@ -1232,19 +1271,19 @@
       <c r="T10" s="6"/>
       <c r="U10" s="9"/>
       <c r="V10" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="13">
         <v>6</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1253,14 +1292,14 @@
       <c r="K11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="26" t="s">
         <v>58</v>
       </c>
       <c r="N11" s="13">
         <v>6</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>32</v>
@@ -1270,36 +1309,34 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="25" t="s">
+      <c r="V11" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D12" s="13">
         <v>7</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="K12" s="9"/>
       <c r="L12" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N12" s="13">
         <v>7</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>32</v>
@@ -1307,38 +1344,42 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="T12" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="U12" s="9"/>
       <c r="V12" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D13" s="13">
         <v>8</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="K13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="27" t="s">
-        <v>59</v>
+      <c r="L13" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="N13" s="13">
         <v>8</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>32</v>
@@ -1348,13 +1389,13 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="9"/>
-      <c r="V13" s="27" t="s">
-        <v>59</v>
+      <c r="V13" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="13">
         <v>9</v>
@@ -1368,16 +1409,16 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="N14" s="13">
         <v>9</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>32</v>
@@ -1387,194 +1428,191 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="9"/>
-      <c r="V14" s="27" t="s">
-        <v>59</v>
+      <c r="V14" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="23"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="23"/>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="13">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="13">
+        <v>10</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="J16" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="26" t="s">
-        <v>60</v>
+      <c r="L16" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="N16" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="T16" s="6"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="25" t="s">
-        <v>58</v>
+      <c r="V16" s="27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="N17" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P17" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="25" t="s">
-        <v>58</v>
+      <c r="V17" s="27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D18" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>60</v>
+      <c r="K18" s="9"/>
+      <c r="L18" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="N18" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
+      <c r="T18" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="U18" s="9"/>
-      <c r="V18" s="25"/>
+      <c r="V18" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="13">
-        <v>13</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="13">
-        <v>13</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="26" t="s">
-        <v>60</v>
-      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="23"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="23"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="13">
         <v>14</v>
@@ -1583,99 +1621,123 @@
       <c r="F20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="27" t="s">
-        <v>59</v>
+      <c r="L20" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="N20" s="13">
         <v>14</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
+      <c r="T20" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="U20" s="9"/>
-      <c r="V20" s="27" t="s">
-        <v>59</v>
+      <c r="V20" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="23"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="23"/>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="13">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" s="13">
+        <v>15</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
-        <v>49</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D22" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="26" t="s">
         <v>58</v>
       </c>
       <c r="N22" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="9"/>
       <c r="V22" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D23" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1684,200 +1746,335 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="26" t="s">
         <v>58</v>
       </c>
       <c r="N23" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
+      <c r="T23" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="U23" s="9"/>
-      <c r="V23" s="25" t="s">
+      <c r="V23" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="K24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="25" t="s">
-        <v>58</v>
+      <c r="L24" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="N24" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="T24" s="6"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="25" t="s">
-        <v>58</v>
+      <c r="V24" s="27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="13">
-        <v>18</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="9" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="23"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="23"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="13">
+        <v>19</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="13">
-        <v>18</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U25" s="9"/>
-      <c r="V25" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="24"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="24"/>
+      <c r="L26" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="13">
+        <v>19</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="1">
-        <v>19</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="1">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="D27" s="13">
+        <v>20</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="13">
+        <v>20</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="1">
-        <v>20</v>
-      </c>
-      <c r="N28" s="1">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="D28" s="13">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="13">
+        <v>21</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" s="9"/>
+      <c r="V28" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1">
-        <v>21</v>
-      </c>
-      <c r="N29" s="1">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="D29" s="13">
+        <v>22</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="13">
+        <v>22</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U29" s="9"/>
+      <c r="V29" s="25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="1">
-        <v>22</v>
-      </c>
-      <c r="N30" s="1">
-        <v>22</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>48</v>
+      <c r="C30" s="4"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="24"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="24"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="1">
+        <v>23</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="1">
+        <v>23</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="1">
+        <v>24</v>
+      </c>
+      <c r="N32" s="1">
+        <v>24</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="1">
+        <v>25</v>
+      </c>
+      <c r="N33" s="1">
+        <v>25</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="1">
+        <v>26</v>
+      </c>
+      <c r="N34" s="1">
+        <v>26</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
